--- a/doc/bom.xlsx
+++ b/doc/bom.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t xml:space="preserve">qt</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">washer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loadcell 50kg SEN 10245</t>
   </si>
   <si>
     <t xml:space="preserve">part</t>
@@ -278,10 +281,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -464,6 +467,20 @@
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -485,7 +502,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -499,7 +516,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -510,48 +527,48 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">4+4+6+6</f>
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">6+6</f>
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/bom.xlsx
+++ b/doc/bom.xlsx
@@ -5,12 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MATERIALS" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="3DPRINT" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ELECTRONICS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">ELECTRONICS!$A$1:$E$24</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -21,11 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t xml:space="preserve">qt</t>
   </si>
   <si>
+    <t xml:space="preserve">mu</t>
+  </si>
+  <si>
     <t xml:space="preserve">description</t>
   </si>
   <si>
@@ -59,6 +66,9 @@
     <t xml:space="preserve">fir strip</t>
   </si>
   <si>
+    <t xml:space="preserve">2 x 780 + 2 x 550</t>
+  </si>
+  <si>
     <t xml:space="preserve">tierod M4</t>
   </si>
   <si>
@@ -74,34 +84,172 @@
     <t xml:space="preserve">washer</t>
   </si>
   <si>
+    <t xml:space="preserve">kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refractory mortar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacer1.stl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top,bottom,front,back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacer2.stl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left/right sides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacer3.stl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">door tierod holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacer4.stl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">door fixating with tierod holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cable-management.stl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient temp sensor and led wire holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mosfet-driver-box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esp8266 holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thingiverse.com/thing:3010027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(load-cell sen10245 bottom holder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thingiverse.com/thing:1100304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC BY-NC-SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load-cell-top.stl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAN 80mm 60mA @5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCTIC F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor 3.3k ohm (5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power transformer 24V 150W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeanWell LRS-150-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanthal A1 AWG34 wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF740PBF mosfet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO-220 heatsink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL817 optocoupler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCB connector 1x2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor 330 ohm (5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor 10k ohm (5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">led</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white led flat 5mm 20mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2N2222 (1A max)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor 470 ohm (5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor 180 ohm (5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esp8266 nodemcu v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">power adaptor 5V 2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ds18B20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor 4.7k ohm (1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight sensor</t>
+  </si>
+  <si>
     <t xml:space="preserve">loadcell 50kg SEN 10245</t>
   </si>
   <si>
-    <t xml:space="preserve">part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spacer1.stl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top,bottom,front,back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spacer2.stl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left/right sides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spacer3.stl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">door tierod holder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spacer4.stl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">door fixating with tierod holder</t>
+    <t xml:space="preserve">LM324N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor 39k (1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor 390 (5%)</t>
   </si>
 </sst>
 </file>
@@ -111,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -136,6 +284,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -183,7 +338,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,6 +359,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -220,7 +379,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -232,7 +391,7 @@
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFCF3834"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -276,29 +435,35 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFF200"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -312,22 +477,25 @@
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -335,67 +503,70 @@
       <c r="A3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>8</v>
+      <c r="G3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>830</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
+      <c r="G4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -403,16 +574,16 @@
       <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>10</v>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -420,16 +591,16 @@
       <c r="A8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="E8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>4500</v>
       </c>
     </row>
@@ -438,10 +609,10 @@
         <f aca="false">3DPRINT!B2*2+3DPRINT!B3*2</f>
         <v>64</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <v>15</v>
       </c>
     </row>
@@ -450,10 +621,10 @@
         <f aca="false">3DPRINT!B3</f>
         <v>12</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>50</v>
       </c>
     </row>
@@ -462,25 +633,22 @@
         <f aca="false">A9+A10</f>
         <v>76</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -500,78 +668,163 @@
     <tabColor rgb="FF0066B3"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="58.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">4+4+6+6</f>
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">6+6</f>
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">2+2</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" display="https://www.thingiverse.com/thing:3010027"/>
+    <hyperlink ref="C9" r:id="rId2" display="https://www.thingiverse.com/thing:1100304"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -580,4 +833,319 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFCF3834"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E24"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/bom.xlsx
+++ b/doc/bom.xlsx
@@ -159,10 +159,10 @@
     <t xml:space="preserve">fan</t>
   </si>
   <si>
-    <t xml:space="preserve">FAN 80mm 60mA @5V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARCTIC F8</t>
+    <t xml:space="preserve">FAN 80mm 20mA @5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noctua NF-R8 Redux 1200</t>
   </si>
   <si>
     <t xml:space="preserve">resistor 3.3k ohm (5%)</t>
@@ -448,7 +448,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -678,7 +678,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="58.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="58.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
@@ -843,8 +843,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc/bom.xlsx
+++ b/doc/bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MATERIALS" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t xml:space="preserve">qt</t>
   </si>
@@ -138,16 +138,10 @@
     <t xml:space="preserve">https://www.thingiverse.com/thing:3010027</t>
   </si>
   <si>
-    <t xml:space="preserve">(load-cell sen10245 bottom holder)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.thingiverse.com/thing:1100304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC BY-NC-SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">load-cell-top.stl</t>
+    <t xml:space="preserve">load-cell-5kg-contact-pad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load-cell-5kg-holder</t>
   </si>
   <si>
     <t xml:space="preserve">category</t>
@@ -445,10 +439,10 @@
     <tabColor rgb="FFFFF200"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,49 +535,49 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1000</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -592,62 +586,79 @@
         <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <f aca="false">3DPRINT!B2*2+3DPRINT!B3*2</f>
         <v>64</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <f aca="false">3DPRINT!B3</f>
         <v>12</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>50</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <f aca="false">A9+A10</f>
-        <v>76</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
+        <f aca="false">A10+A11</f>
+        <v>76</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -671,7 +682,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -800,21 +811,19 @@
         <v>37</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
@@ -823,7 +832,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" display="https://www.thingiverse.com/thing:3010027"/>
-    <hyperlink ref="C9" r:id="rId2" display="https://www.thingiverse.com/thing:1100304"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -843,8 +851,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -859,7 +867,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -871,270 +879,270 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/doc/bom.xlsx
+++ b/doc/bom.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t xml:space="preserve">qt</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t xml:space="preserve">8 x 830 x 600 + 4 x 556 x 600 + 1 x 790 x 560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 700 x 400</t>
   </si>
   <si>
     <t xml:space="preserve">fir strip</t>
@@ -442,7 +445,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -549,13 +552,16 @@
       <c r="F5" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="G5" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1000</v>
@@ -567,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1000</v>
@@ -586,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>10</v>
@@ -603,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>25</v>
@@ -621,7 +627,7 @@
         <v>64</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>15</v>
@@ -633,7 +639,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>50</v>
@@ -645,7 +651,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>10</v>
@@ -656,10 +662,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -696,7 +702,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -705,128 +711,128 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">4+4+6+6</f>
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">6+6</f>
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">2+2</f>
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +873,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -879,270 +885,270 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>6</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
